--- a/BalanceSheet/INTC_balance.xlsx
+++ b/BalanceSheet/INTC_balance.xlsx
@@ -392,7 +392,7 @@
         <v>8794000000.0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>7735000000.0</v>
+        <v>7659000000.0</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>6880000000.0</v>
@@ -519,7 +519,7 @@
         <v>8698000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>8639000000.0</v>
+        <v>8744000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>8638000000.0</v>
@@ -646,7 +646,7 @@
         <v>2658000000.0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1637000000.0</v>
+        <v>1713000000.0</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2414000000.0</v>
@@ -900,7 +900,7 @@
         <v>56770000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>57655000000.0</v>
+        <v>55386000000.0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>53563000000.0</v>
@@ -1281,7 +1281,7 @@
         <v>4069000000.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1521000000.0</v>
+        <v>5553000000.0</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>6255000000.0</v>
@@ -1662,7 +1662,7 @@
         <v>4755000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4096000000.0</v>
+        <v>4128000000.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>4809000000.0</v>
@@ -1916,7 +1916,7 @@
         <v>3464000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>3868000000.0</v>
+        <v>3693000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>5200000000.0</v>
@@ -2508,7 +2508,7 @@
         <v>36455000000.0</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>25838000000.0</v>
+        <v>25308000000.0</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>23707000000.0</v>
@@ -2830,7 +2830,7 @@
         <v>2027000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>835000000.0</v>
+        <v>6963000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>6670000000.0</v>
@@ -2957,7 +2957,7 @@
         <v>7626000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>7460000000.0</v>
+        <v>4439000000.0</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>4085000000.0</v>
@@ -4432,7 +4432,7 @@
         <v>19116000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>16583000000.0</v>
+        <v>15878000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>16882000000.0</v>
@@ -4559,7 +4559,7 @@
         <v>39919000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>29706000000.0</v>
+        <v>29001000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>28907000000.0</v>
